--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\đồ án caro\CARO-2-NGUOI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kieud\Documents\GitHub\CARO-2-NGUOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Đề Tài : Game caro hai người chơi ( sử dụng stack để undo)</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Tạo Menu</t>
   </si>
   <si>
-    <t>Thêm chức năng newgame, hướng dẫn, Undo, Exit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Debug, thử nghiệm </t>
   </si>
   <si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>file power point</t>
+  </si>
+  <si>
+    <t>Thêm chức năng newgame, hướng dẫn, Undo, Exit,chế độ chơi</t>
+  </si>
+  <si>
+    <t>Mô phỏng và lưu ván cờ</t>
+  </si>
+  <si>
+    <t>Lưu ván cờ vào Queue để mô phỏng và lưu trên file để xem lại hoặc chơi tiếp</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -520,10 +529,10 @@
   <sheetPr>
     <tabColor rgb="FF1C1A0E"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -539,15 +548,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -556,10 +565,10 @@
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
@@ -583,10 +592,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -595,7 +604,9 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="3">
         <v>43354</v>
       </c>
@@ -611,8 +622,8 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -630,13 +641,13 @@
         <v>43356</v>
       </c>
       <c r="I4" s="3">
-        <v>43360</v>
+        <v>43357</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -654,15 +665,15 @@
         <v>43356</v>
       </c>
       <c r="I5" s="3">
-        <v>43360</v>
+        <v>43357</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -687,8 +698,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -703,18 +714,18 @@
         <v>43368</v>
       </c>
       <c r="H7" s="3">
-        <v>43361</v>
+        <v>43367</v>
       </c>
       <c r="I7" s="3">
-        <v>43366</v>
+        <v>43368</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -739,8 +750,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -763,8 +774,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
@@ -822,7 +833,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -845,27 +856,27 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="3">
-        <v>43405</v>
+        <v>43400</v>
       </c>
       <c r="G13" s="3">
-        <v>43409</v>
+        <v>43406</v>
       </c>
       <c r="H13" s="3">
-        <v>43401</v>
+        <v>43399</v>
       </c>
       <c r="I13" s="3">
         <v>43406</v>
@@ -873,43 +884,43 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11">
-        <v>43406</v>
-      </c>
-      <c r="G14" s="11">
-        <v>43411</v>
-      </c>
-      <c r="H14" s="11">
-        <v>43399</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43405</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43409</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43407</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43408</v>
+      </c>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7">
         <v>8</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
@@ -917,20 +928,54 @@
         <v>12</v>
       </c>
       <c r="F15" s="11">
+        <v>43406</v>
+      </c>
+      <c r="G15" s="11">
+        <v>43411</v>
+      </c>
+      <c r="H15" s="11">
+        <v>43406</v>
+      </c>
+      <c r="I15" s="11">
+        <v>43434</v>
+      </c>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11">
         <v>43409</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>43414</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="H16" s="11">
+        <v>43429</v>
+      </c>
+      <c r="I16" s="11">
+        <v>43437</v>
+      </c>
+      <c r="J16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
